--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fgf10-Fgfr1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fgf10-Fgfr1.xlsx
@@ -531,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.2974865886425</v>
+        <v>1.31623</v>
       </c>
       <c r="H2">
-        <v>1.2974865886425</v>
+        <v>3.94869</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.96984461224647</v>
+        <v>7.616180666666666</v>
       </c>
       <c r="N2">
-        <v>5.96984461224647</v>
+        <v>22.848542</v>
       </c>
       <c r="O2">
-        <v>0.05083143679395698</v>
+        <v>0.06266940401417194</v>
       </c>
       <c r="P2">
-        <v>0.05083143679395698</v>
+        <v>0.06266940401417194</v>
       </c>
       <c r="Q2">
-        <v>7.74579332066948</v>
+        <v>10.02464547888667</v>
       </c>
       <c r="R2">
-        <v>7.74579332066948</v>
+        <v>90.22180930997999</v>
       </c>
       <c r="S2">
-        <v>0.05083143679395698</v>
+        <v>0.06266940401417194</v>
       </c>
       <c r="T2">
-        <v>0.05083143679395698</v>
+        <v>0.06266940401417194</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.2974865886425</v>
+        <v>1.31623</v>
       </c>
       <c r="H3">
-        <v>1.2974865886425</v>
+        <v>3.94869</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,34 +611,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>86.5745337827842</v>
+        <v>86.98680366666667</v>
       </c>
       <c r="N3">
-        <v>86.5745337827842</v>
+        <v>260.960411</v>
       </c>
       <c r="O3">
-        <v>0.7371561954758968</v>
+        <v>0.7157670466966058</v>
       </c>
       <c r="P3">
-        <v>0.7371561954758968</v>
+        <v>0.7157670466966058</v>
       </c>
       <c r="Q3">
-        <v>112.3292965011395</v>
+        <v>114.4946405901767</v>
       </c>
       <c r="R3">
-        <v>112.3292965011395</v>
+        <v>1030.45176531159</v>
       </c>
       <c r="S3">
-        <v>0.7371561954758968</v>
+        <v>0.7157670466966058</v>
       </c>
       <c r="T3">
-        <v>0.7371561954758968</v>
+        <v>0.7157670466966058</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.2974865886425</v>
+        <v>1.31623</v>
       </c>
       <c r="H4">
-        <v>1.2974865886425</v>
+        <v>3.94869</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -673,34 +673,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.809150119642212</v>
+        <v>0.9360126666666666</v>
       </c>
       <c r="N4">
-        <v>0.809150119642212</v>
+        <v>2.808038</v>
       </c>
       <c r="O4">
-        <v>0.006889670642187516</v>
+        <v>0.007701938614251506</v>
       </c>
       <c r="P4">
-        <v>0.006889670642187516</v>
+        <v>0.007701938614251506</v>
       </c>
       <c r="Q4">
-        <v>1.049861428434244</v>
+        <v>1.232007952246667</v>
       </c>
       <c r="R4">
-        <v>1.049861428434244</v>
+        <v>11.08807157022</v>
       </c>
       <c r="S4">
-        <v>0.006889670642187516</v>
+        <v>0.007701938614251506</v>
       </c>
       <c r="T4">
-        <v>0.006889670642187516</v>
+        <v>0.007701938614251506</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.2974865886425</v>
+        <v>1.31623</v>
       </c>
       <c r="H5">
-        <v>1.2974865886425</v>
+        <v>3.94869</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.090419340765</v>
+        <v>25.99049233333334</v>
       </c>
       <c r="N5">
-        <v>24.090419340765</v>
+        <v>77.97147700000001</v>
       </c>
       <c r="O5">
-        <v>0.2051226970879587</v>
+        <v>0.2138616106749707</v>
       </c>
       <c r="P5">
-        <v>0.2051226970879587</v>
+        <v>0.2138616106749707</v>
       </c>
       <c r="Q5">
-        <v>31.25699600941648</v>
+        <v>34.20946572390334</v>
       </c>
       <c r="R5">
-        <v>31.25699600941648</v>
+        <v>307.88519151513</v>
       </c>
       <c r="S5">
-        <v>0.2051226970879587</v>
+        <v>0.2138616106749707</v>
       </c>
       <c r="T5">
-        <v>0.2051226970879587</v>
+        <v>0.2138616106749707</v>
       </c>
     </row>
   </sheetData>
